--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145760.0264167689</v>
+        <v>25184850.28063701</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145760.0264167689</v>
+        <v>25184850.28063701</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5416.750861648248</v>
+        <v>535267.5811524725</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5416.750861648248</v>
+        <v>535267.5811524725</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1111449167.543267</v>
+        <v>44508726.62715403</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8029.796101928682</v>
+        <v>913898.9856317693</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16037.12307791508</v>
+        <v>1823326.615201022</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24044.45005390146</v>
+        <v>2732754.244770276</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32258.05492742301</v>
+        <v>3645546.189974788</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40463.70621801657</v>
+        <v>4556755.372176624</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48669.35750861013</v>
+        <v>5467964.554378458</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56875.00879920367</v>
+        <v>6379173.73658029</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65080.66008979722</v>
+        <v>7290382.918782122</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73135.61795244081</v>
+        <v>8195680.379430427</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81168.27400682858</v>
+        <v>9104642.290991809</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89196.79692075914</v>
+        <v>10014120.35523004</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97019.93123437748</v>
+        <v>10920522.07607794</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>104853.5729517845</v>
+        <v>11829014.77027978</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113163.8002017434</v>
+        <v>12692307.72936851</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121488.5060367463</v>
+        <v>13547763.03114528</v>
       </c>
     </row>
   </sheetData>
